--- a/Patrick/result/filtered_kmean/filtered_ht1.xlsx
+++ b/Patrick/result/filtered_kmean/filtered_ht1.xlsx
@@ -369,24 +369,24 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Duplikasi &lt;= 3</t>
+          <t>Duplikasi &lt; 3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Duplikasi &gt; 3</t>
+          <t>Duplikasi =&gt; 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>10191</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>11614</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -453,24 +453,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>12081</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>12296</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>18212</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2055</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>21684</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>3011</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>31148</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -693,24 +693,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>4426</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>4481</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>4846</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>6940</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -789,12 +789,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>7083</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>8412</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Jati</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
